--- a/nsduh_yr_coverage.xlsx
+++ b/nsduh_yr_coverage.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
